--- a/biology/Médecine/Conduit_veineux/Conduit_veineux.xlsx
+++ b/biology/Médecine/Conduit_veineux/Conduit_veineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le conduit veineux (anciennement canal veineux d'Arantius : Ductus Venosus) est un vaisseau permettant le bon fonctionnement de la circulation fœtale.
 </t>
@@ -511,7 +523,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sein du fœtus, le conduit veineux permet à la majeure partie du sang provenant de la veine ombilicale d'atteindre la veine cave inférieure. 
 Ainsi, le sang oxygéné par le placenta court-circuite le foie et, avec les autres shunts fœtaux que sont le foramen ovale et le canal artériel, joue un rôle essentiel dans la perfusion cérébrale.
@@ -543,7 +557,9 @@
           <t>Fermeture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le conduit veineux reste perméable à la naissance ce qui permet de cathétériser la veine ombilicale, dans le cas contraire il n'est plus fonctionnel à quelques minutes de vie.
 Il s'obture lors de la première semaine de vie chez la plupart des nouveau-nés à terme, parfois après chez les prématurés, ne laissant qu'un vestige, le ligament veineux du foie.
